--- a/second_pass/welfare_results/isoelastic_NC/analysis_results/net_series_isoelastic_nc.xlsx
+++ b/second_pass/welfare_results/isoelastic_NC/analysis_results/net_series_isoelastic_nc.xlsx
@@ -367,204 +367,320 @@
       <c r="A2" t="n">
         <v>1991</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
+      <c r="B2" t="n">
+        <v>110209703522.379</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5562650732.22618</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>1992</v>
       </c>
-      <c r="B3"/>
-      <c r="C3"/>
+      <c r="B3" t="n">
+        <v>114916633969.452</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5655310925.05348</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>1993</v>
       </c>
-      <c r="B4"/>
-      <c r="C4"/>
+      <c r="B4" t="n">
+        <v>119627524517.06</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5749705021.18639</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>1994</v>
       </c>
-      <c r="B5"/>
-      <c r="C5"/>
+      <c r="B5" t="n">
+        <v>124783503471.881</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5844399705.19039</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>1995</v>
       </c>
-      <c r="B6"/>
-      <c r="C6"/>
+      <c r="B6" t="n">
+        <v>130524227941.79</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5940188132.26621</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>1996</v>
       </c>
-      <c r="B7"/>
-      <c r="C7"/>
+      <c r="B7" t="n">
+        <v>136621098400.512</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6037398032.93476</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>1997</v>
       </c>
-      <c r="B8"/>
-      <c r="C8"/>
+      <c r="B8" t="n">
+        <v>142683538175.957</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6125771744.78619</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>1998</v>
       </c>
-      <c r="B9"/>
-      <c r="C9"/>
+      <c r="B9" t="n">
+        <v>146929293618.405</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6210453298.99514</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>1999</v>
       </c>
-      <c r="B10"/>
-      <c r="C10"/>
+      <c r="B10" t="n">
+        <v>152439407694.337</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6306176987.27927</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>2000</v>
       </c>
-      <c r="B11"/>
-      <c r="C11"/>
+      <c r="B11" t="n">
+        <v>160108008622.729</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6396255099.15718</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>2001</v>
       </c>
-      <c r="B12"/>
-      <c r="C12"/>
+      <c r="B12" t="n">
+        <v>166564600265.266</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6486680566.27683</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>2002</v>
       </c>
-      <c r="B13"/>
-      <c r="C13"/>
+      <c r="B13" t="n">
+        <v>172787914970.061</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6580089787.38974</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>2003</v>
       </c>
-      <c r="B14"/>
-      <c r="C14"/>
+      <c r="B14" t="n">
+        <v>179939452175.168</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6684774553.8325</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>2004</v>
       </c>
-      <c r="B15"/>
-      <c r="C15"/>
+      <c r="B15" t="n">
+        <v>190132591996.003</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6782416717.54694</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>2005</v>
       </c>
-      <c r="B16"/>
-      <c r="C16"/>
+      <c r="B16" t="n">
+        <v>200595202192.977</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6882934886.85187</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>2006</v>
       </c>
-      <c r="B17"/>
-      <c r="C17"/>
+      <c r="B17" t="n">
+        <v>213267851910.708</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6980659527.77527</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>2007</v>
       </c>
-      <c r="B18"/>
-      <c r="C18"/>
+      <c r="B18" t="n">
+        <v>225415789613.73</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7081814535.84938</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>2008</v>
       </c>
-      <c r="B19"/>
-      <c r="C19"/>
+      <c r="B19" t="n">
+        <v>234540202349.58</v>
+      </c>
+      <c r="C19" t="n">
+        <v>7185442468.9033</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>2009</v>
       </c>
-      <c r="B20"/>
-      <c r="C20"/>
+      <c r="B20" t="n">
+        <v>239355507327.63</v>
+      </c>
+      <c r="C20" t="n">
+        <v>7285307193.80034</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>2010</v>
       </c>
-      <c r="B21"/>
-      <c r="C21"/>
+      <c r="B21" t="n">
+        <v>249663687290.283</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7388559772.87007</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>2011</v>
       </c>
-      <c r="B22"/>
-      <c r="C22"/>
+      <c r="B22" t="n">
+        <v>260392890713.978</v>
+      </c>
+      <c r="C22" t="n">
+        <v>7484251006.42776</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>2012</v>
       </c>
-      <c r="B23"/>
-      <c r="C23"/>
+      <c r="B23" t="n">
+        <v>269411548295.622</v>
+      </c>
+      <c r="C23" t="n">
+        <v>7602486975.26219</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>2013</v>
       </c>
-      <c r="B24"/>
-      <c r="C24"/>
+      <c r="B24" t="n">
+        <v>277843760570.284</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7716419905.48853</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>2014</v>
       </c>
-      <c r="B25"/>
-      <c r="C25"/>
+      <c r="B25" t="n">
+        <v>285318620311.32</v>
+      </c>
+      <c r="C25" t="n">
+        <v>7820875550.40431</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>2015</v>
       </c>
-      <c r="B26"/>
-      <c r="C26"/>
+      <c r="B26" t="n">
+        <v>290446203825.649</v>
+      </c>
+      <c r="C26" t="n">
+        <v>7925716948.41613</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>2016</v>
       </c>
-      <c r="B27"/>
-      <c r="C27"/>
+      <c r="B27" t="n">
+        <v>298264685704.282</v>
+      </c>
+      <c r="C27" t="n">
+        <v>8037994133.71831</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>2017</v>
       </c>
-      <c r="B28"/>
-      <c r="C28"/>
+      <c r="B28" t="n">
+        <v>307985453814.041</v>
+      </c>
+      <c r="C28" t="n">
+        <v>8147793404.41401</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>2018</v>
       </c>
-      <c r="B29"/>
-      <c r="C29"/>
+      <c r="B29" t="n">
+        <v>320671837186.626</v>
+      </c>
+      <c r="C29" t="n">
+        <v>8230248186.28017</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>2019</v>
       </c>
-      <c r="B30"/>
-      <c r="C30"/>
+      <c r="B30" t="n">
+        <v>332152649146.37</v>
+      </c>
+      <c r="C30" t="n">
+        <v>8321140170.60736</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
